--- a/Code/Results/Cases/Case_8_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.85183666023778</v>
+        <v>18.59819468985796</v>
       </c>
       <c r="C2">
-        <v>13.29183625007424</v>
+        <v>13.68412839094179</v>
       </c>
       <c r="D2">
-        <v>4.59086637392208</v>
+        <v>4.587144204608134</v>
       </c>
       <c r="E2">
-        <v>8.540324347608117</v>
+        <v>8.61141783209729</v>
       </c>
       <c r="F2">
-        <v>20.18035526835151</v>
+        <v>19.45903058348179</v>
       </c>
       <c r="G2">
-        <v>2.085448213024487</v>
+        <v>1.805106657822993</v>
       </c>
       <c r="H2">
-        <v>1.957174392112031</v>
+        <v>1.84354540337677</v>
       </c>
       <c r="I2">
-        <v>2.538375018835923</v>
+        <v>2.540693310073392</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.07275707473857</v>
+        <v>14.40160167728835</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.38117727217037</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.967761652449033</v>
       </c>
       <c r="N2">
-        <v>6.809959155970898</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.01668011143932</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.62413578723663</v>
+        <v>6.932794266797858</v>
       </c>
       <c r="Q2">
-        <v>16.18515557943081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.89858982118713</v>
+      </c>
+      <c r="R2">
+        <v>12.5515072681443</v>
+      </c>
+      <c r="S2">
+        <v>15.53855242967754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.59846720032019</v>
+        <v>17.40045620669521</v>
       </c>
       <c r="C3">
-        <v>12.67689154352467</v>
+        <v>13.02308509454456</v>
       </c>
       <c r="D3">
-        <v>4.451311988216655</v>
+        <v>4.416312725939441</v>
       </c>
       <c r="E3">
-        <v>8.443810580857134</v>
+        <v>8.553623788431956</v>
       </c>
       <c r="F3">
-        <v>19.5870504382262</v>
+        <v>18.88162241946796</v>
       </c>
       <c r="G3">
-        <v>2.089495584117017</v>
+        <v>2.331592241608285</v>
       </c>
       <c r="H3">
-        <v>2.14656620849552</v>
+        <v>2.008991432459719</v>
       </c>
       <c r="I3">
-        <v>2.695696487860614</v>
+        <v>2.536050210912308</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.07290800037547</v>
+        <v>14.41392715710845</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.49622221868382</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.880029845402829</v>
       </c>
       <c r="N3">
-        <v>6.645831812318913</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.45785249159367</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.72214235398156</v>
+        <v>6.775793096691762</v>
       </c>
       <c r="Q3">
-        <v>15.91835235019176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.34465861045761</v>
+      </c>
+      <c r="R3">
+        <v>12.61873824967198</v>
+      </c>
+      <c r="S3">
+        <v>15.27446845855276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.77920427214318</v>
+        <v>16.61732164634737</v>
       </c>
       <c r="C4">
-        <v>12.28489569731385</v>
+        <v>12.60231750447283</v>
       </c>
       <c r="D4">
-        <v>4.362932077868434</v>
+        <v>4.307744316484009</v>
       </c>
       <c r="E4">
-        <v>8.382474241298569</v>
+        <v>8.516888964379151</v>
       </c>
       <c r="F4">
-        <v>19.22272835181472</v>
+        <v>18.52305872623268</v>
       </c>
       <c r="G4">
-        <v>2.092069114949595</v>
+        <v>2.66662074403625</v>
       </c>
       <c r="H4">
-        <v>2.267095816796815</v>
+        <v>2.114366022730836</v>
       </c>
       <c r="I4">
-        <v>2.796761155110895</v>
+        <v>2.619489004029906</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.0773938349133</v>
+        <v>14.4237121520686</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.5674365446441</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.845383650357675</v>
       </c>
       <c r="N4">
-        <v>6.543066658925871</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.10053605479282</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.78458311951161</v>
+        <v>6.677911816768105</v>
       </c>
       <c r="Q4">
-        <v>15.75883799408441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.98977902052665</v>
+      </c>
+      <c r="R4">
+        <v>12.66250277015217</v>
+      </c>
+      <c r="S4">
+        <v>15.1132495866011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.42768440355534</v>
+        <v>16.28108082172873</v>
       </c>
       <c r="C5">
-        <v>12.12782981240845</v>
+        <v>12.43369468133491</v>
       </c>
       <c r="D5">
-        <v>4.32734308414272</v>
+        <v>4.263747529831679</v>
       </c>
       <c r="E5">
-        <v>8.356260332494934</v>
+        <v>8.501012132657994</v>
       </c>
       <c r="F5">
-        <v>19.06720679756161</v>
+        <v>18.36874515944519</v>
       </c>
       <c r="G5">
-        <v>2.093146803764982</v>
+        <v>2.807005661504619</v>
       </c>
       <c r="H5">
-        <v>2.317608803384558</v>
+        <v>2.158561014550715</v>
       </c>
       <c r="I5">
-        <v>2.842062663850995</v>
+        <v>2.658099919974185</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.07518305238073</v>
+        <v>14.42319993661611</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.59207163834722</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.833113096050514</v>
       </c>
       <c r="N5">
-        <v>6.501199130867659</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.95016851632432</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.81106665448206</v>
+        <v>6.638169371414826</v>
       </c>
       <c r="Q5">
-        <v>15.68938636655832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.84024231964135</v>
+      </c>
+      <c r="R5">
+        <v>12.68152725755652</v>
+      </c>
+      <c r="S5">
+        <v>15.04216957692521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.36281189768397</v>
+        <v>16.21832699244167</v>
       </c>
       <c r="C6">
-        <v>12.10914658534597</v>
+        <v>12.41337679086663</v>
       </c>
       <c r="D6">
-        <v>4.322719052028382</v>
+        <v>4.257783850175157</v>
       </c>
       <c r="E6">
-        <v>8.351040051601895</v>
+        <v>8.497643813388404</v>
       </c>
       <c r="F6">
-        <v>19.03252619280989</v>
+        <v>18.33406769848953</v>
       </c>
       <c r="G6">
-        <v>2.093334908516678</v>
+        <v>2.83154833737549</v>
       </c>
       <c r="H6">
-        <v>2.326446644703115</v>
+        <v>2.166311827928814</v>
       </c>
       <c r="I6">
-        <v>2.853504071795609</v>
+        <v>2.669183763353847</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.06863231741557</v>
+        <v>14.41699348828853</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.59064023411327</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.827646392967605</v>
       </c>
       <c r="N6">
-        <v>6.494804988408129</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.92335741914528</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.81608499203931</v>
+        <v>6.632141773909596</v>
       </c>
       <c r="Q6">
-        <v>15.67110636939907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.81354806782935</v>
+      </c>
+      <c r="R6">
+        <v>12.68543429944342</v>
+      </c>
+      <c r="S6">
+        <v>15.02346062703349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.75786808069768</v>
+        <v>16.57718404704748</v>
       </c>
       <c r="C7">
-        <v>12.3032751483352</v>
+        <v>12.5955082075002</v>
       </c>
       <c r="D7">
-        <v>4.366052216926121</v>
+        <v>4.318948457321269</v>
       </c>
       <c r="E7">
-        <v>8.379878322471299</v>
+        <v>8.51479226311271</v>
       </c>
       <c r="F7">
-        <v>19.19663062022612</v>
+        <v>18.44665481753158</v>
       </c>
       <c r="G7">
-        <v>2.092104461520787</v>
+        <v>2.742160836342613</v>
       </c>
       <c r="H7">
-        <v>2.268804246113286</v>
+        <v>2.11727635219302</v>
       </c>
       <c r="I7">
-        <v>2.8075779873362</v>
+        <v>2.633641117080141</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.06031616449105</v>
+        <v>14.38718774900278</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.53559351476147</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.822171357066001</v>
       </c>
       <c r="N7">
-        <v>6.544096833139059</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.09411011908402</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.78661088665653</v>
+        <v>6.677680284261638</v>
       </c>
       <c r="Q7">
-        <v>15.73938401599592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.97543829590855</v>
+      </c>
+      <c r="R7">
+        <v>12.66728899071053</v>
+      </c>
+      <c r="S7">
+        <v>15.05510552994675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.40964909141035</v>
+        <v>18.11621345315587</v>
       </c>
       <c r="C8">
-        <v>13.10864633727966</v>
+        <v>13.40450303703172</v>
       </c>
       <c r="D8">
-        <v>4.547985445120228</v>
+        <v>4.559981664926356</v>
       </c>
       <c r="E8">
-        <v>8.504654093780367</v>
+        <v>8.589544972648453</v>
       </c>
       <c r="F8">
-        <v>19.94528877356568</v>
+        <v>19.0703404311722</v>
       </c>
       <c r="G8">
-        <v>2.086851755812131</v>
+        <v>2.483478877586108</v>
       </c>
       <c r="H8">
-        <v>2.022890212964001</v>
+        <v>1.905302501003724</v>
       </c>
       <c r="I8">
-        <v>2.604923542106131</v>
+        <v>2.498202480196352</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.04944242039142</v>
+        <v>14.31901210795075</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.34979997980369</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.87217137333173</v>
       </c>
       <c r="N8">
-        <v>6.755882869722228</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.82150069653196</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.6599796519369</v>
+        <v>6.876967628870389</v>
       </c>
       <c r="Q8">
-        <v>16.06832177359914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.68040327958848</v>
+      </c>
+      <c r="R8">
+        <v>12.58686240373617</v>
+      </c>
+      <c r="S8">
+        <v>15.29892911157882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.28358697005676</v>
+        <v>20.85393331782601</v>
       </c>
       <c r="C9">
-        <v>14.53636641874015</v>
+        <v>14.9272657872285</v>
       </c>
       <c r="D9">
-        <v>4.876240530611605</v>
+        <v>4.965907648812555</v>
       </c>
       <c r="E9">
-        <v>8.737181162899368</v>
+        <v>8.729380525391283</v>
       </c>
       <c r="F9">
-        <v>21.44562795056641</v>
+        <v>20.47986531496305</v>
       </c>
       <c r="G9">
-        <v>2.077202300418679</v>
+        <v>1.918768770604915</v>
       </c>
       <c r="H9">
-        <v>1.571948582805813</v>
+        <v>1.607250855238705</v>
       </c>
       <c r="I9">
-        <v>2.722727479314926</v>
+        <v>2.795386351687175</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.09479032085397</v>
+        <v>14.30500247554112</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.07689408182192</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.186538369297963</v>
       </c>
       <c r="N9">
-        <v>7.151244537162743</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.13706507829834</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.42636175329154</v>
+        <v>7.256461170195334</v>
       </c>
       <c r="Q9">
-        <v>16.77779269930713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.9769735860863</v>
+      </c>
+      <c r="R9">
+        <v>12.43597927772258</v>
+      </c>
+      <c r="S9">
+        <v>15.95598891293778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.11196495239057</v>
+        <v>22.51108017765115</v>
       </c>
       <c r="C10">
-        <v>15.57157907671717</v>
+        <v>15.89727369204446</v>
       </c>
       <c r="D10">
-        <v>5.121055299151776</v>
+        <v>5.304531081237124</v>
       </c>
       <c r="E10">
-        <v>8.872113432358363</v>
+        <v>8.80564931395215</v>
       </c>
       <c r="F10">
-        <v>22.42100877801131</v>
+        <v>21.13073101643335</v>
       </c>
       <c r="G10">
-        <v>2.070615364022523</v>
+        <v>3.983756235130794</v>
       </c>
       <c r="H10">
-        <v>1.847236510330104</v>
+        <v>1.85921856696596</v>
       </c>
       <c r="I10">
-        <v>2.973232605604458</v>
+        <v>2.99559723724359</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.07172788188374</v>
+        <v>14.12898134724646</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.7564318225153</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.348820206557892</v>
       </c>
       <c r="N10">
-        <v>7.332568276838153</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.92966478096847</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.28060432884379</v>
+        <v>7.420937413613807</v>
       </c>
       <c r="Q10">
-        <v>17.22568003330868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.71760520051832</v>
+      </c>
+      <c r="R10">
+        <v>12.37744523324102</v>
+      </c>
+      <c r="S10">
+        <v>16.15551653655886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.52146061145915</v>
+        <v>22.74850701079657</v>
       </c>
       <c r="C11">
-        <v>16.50810379105232</v>
+        <v>16.54467512229057</v>
       </c>
       <c r="D11">
-        <v>5.381506973111271</v>
+        <v>5.679188959831314</v>
       </c>
       <c r="E11">
-        <v>8.890789259957636</v>
+        <v>8.814374778066023</v>
       </c>
       <c r="F11">
-        <v>21.95581193819818</v>
+        <v>20.16540028129493</v>
       </c>
       <c r="G11">
-        <v>2.0685191339086</v>
+        <v>7.845631836568908</v>
       </c>
       <c r="H11">
-        <v>2.780342423863858</v>
+        <v>2.77241530135195</v>
       </c>
       <c r="I11">
-        <v>3.0498848800736</v>
+        <v>3.048479509874449</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.41837211493985</v>
+        <v>13.33022958262411</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.14090587959791</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.798710766763842</v>
       </c>
       <c r="N11">
-        <v>6.618411916089115</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.45790879405012</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.35501498278511</v>
+        <v>6.679428584504919</v>
       </c>
       <c r="Q11">
-        <v>16.69566334486979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.17271032119075</v>
+      </c>
+      <c r="R11">
+        <v>12.56071328816036</v>
+      </c>
+      <c r="S11">
+        <v>15.23775558674378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.51375246269896</v>
+        <v>22.68222509865308</v>
       </c>
       <c r="C12">
-        <v>17.07149178766013</v>
+        <v>16.94599731109133</v>
       </c>
       <c r="D12">
-        <v>5.551411502092988</v>
+        <v>5.901251582173568</v>
       </c>
       <c r="E12">
-        <v>9.12723404925428</v>
+        <v>9.029957530397152</v>
       </c>
       <c r="F12">
-        <v>21.37554624326927</v>
+        <v>19.38632859725361</v>
       </c>
       <c r="G12">
-        <v>2.06801484704258</v>
+        <v>9.711690741717069</v>
       </c>
       <c r="H12">
-        <v>4.082309894783791</v>
+        <v>4.073825136156506</v>
       </c>
       <c r="I12">
-        <v>3.061493669687891</v>
+        <v>3.052367868672346</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.89936013901929</v>
+        <v>12.80207979530534</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.77727879182716</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.37461091842102</v>
       </c>
       <c r="N12">
-        <v>6.050254393838165</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.89191117600761</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.46572312230492</v>
+        <v>6.094791762580394</v>
       </c>
       <c r="Q12">
-        <v>16.16714778643346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.57957325139942</v>
+      </c>
+      <c r="R12">
+        <v>12.73307192229783</v>
+      </c>
+      <c r="S12">
+        <v>14.56455556991783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.16569259791489</v>
+        <v>22.39464187357144</v>
       </c>
       <c r="C13">
-        <v>17.4206729202319</v>
+        <v>17.27669020414694</v>
       </c>
       <c r="D13">
-        <v>5.668920163758762</v>
+        <v>6.002876353019167</v>
       </c>
       <c r="E13">
-        <v>9.518404677073084</v>
+        <v>9.421681049384004</v>
       </c>
       <c r="F13">
-        <v>20.62327837889479</v>
+        <v>18.76192546661895</v>
       </c>
       <c r="G13">
-        <v>2.068735329309642</v>
+        <v>9.277776099013067</v>
       </c>
       <c r="H13">
-        <v>5.449428808191996</v>
+        <v>5.452677559996777</v>
       </c>
       <c r="I13">
-        <v>3.027872753326424</v>
+        <v>3.026110423899172</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.42821464978793</v>
+        <v>12.45376045404863</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.56555383631437</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.039997880616621</v>
       </c>
       <c r="N13">
-        <v>5.580953289805094</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.19939338040971</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.60827626090642</v>
+        <v>5.618554679928976</v>
       </c>
       <c r="Q13">
-        <v>15.57287369054439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.90858464883614</v>
+      </c>
+      <c r="R13">
+        <v>12.87926269612871</v>
+      </c>
+      <c r="S13">
+        <v>14.08533672366116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.75919037158232</v>
+        <v>22.08374356413303</v>
       </c>
       <c r="C14">
-        <v>17.57834541552006</v>
+        <v>17.48593028132485</v>
       </c>
       <c r="D14">
-        <v>5.729686014805882</v>
+        <v>6.02107276869359</v>
       </c>
       <c r="E14">
-        <v>9.877545809574661</v>
+        <v>9.801118542879824</v>
       </c>
       <c r="F14">
-        <v>20.00573774247482</v>
+        <v>18.37676647083753</v>
       </c>
       <c r="G14">
-        <v>2.069795500379799</v>
+        <v>7.955187450285382</v>
       </c>
       <c r="H14">
-        <v>6.477567910039614</v>
+        <v>6.477914063976812</v>
       </c>
       <c r="I14">
-        <v>2.98509784837785</v>
+        <v>2.99545026994547</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.12093440068119</v>
+        <v>12.28040434787162</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.47289299229418</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.842331248072812</v>
       </c>
       <c r="N14">
-        <v>5.326424593872954</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.64854717216766</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.72353996785123</v>
+        <v>5.36312285073677</v>
       </c>
       <c r="Q14">
-        <v>15.12008941255268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.39375821194937</v>
+      </c>
+      <c r="R14">
+        <v>12.96742996835529</v>
+      </c>
+      <c r="S14">
+        <v>13.82336683559255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.58059023289929</v>
+        <v>21.95156365866008</v>
       </c>
       <c r="C15">
-        <v>17.57759127625537</v>
+        <v>17.5261385999979</v>
       </c>
       <c r="D15">
-        <v>5.734188748862315</v>
+        <v>6.001715324930714</v>
       </c>
       <c r="E15">
-        <v>9.965916299275101</v>
+        <v>9.9043646412008</v>
       </c>
       <c r="F15">
-        <v>19.81106486234438</v>
+        <v>18.29946794665423</v>
       </c>
       <c r="G15">
-        <v>2.070334106865286</v>
+        <v>7.197260119329071</v>
       </c>
       <c r="H15">
-        <v>6.715408464605311</v>
+        <v>6.714505323564398</v>
       </c>
       <c r="I15">
-        <v>2.965996672913902</v>
+        <v>2.982952349352103</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.05175573271297</v>
+        <v>12.26346639005125</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.47048718168352</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.805869542834048</v>
       </c>
       <c r="N15">
-        <v>5.275820234348114</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.48549024454762</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.7566619111903</v>
+        <v>5.314122953690211</v>
       </c>
       <c r="Q15">
-        <v>14.99093385854406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.24834553647023</v>
+      </c>
+      <c r="R15">
+        <v>12.981661249622</v>
+      </c>
+      <c r="S15">
+        <v>13.78706816419526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.86962838882789</v>
+        <v>21.43467746618245</v>
       </c>
       <c r="C16">
-        <v>17.11386187703943</v>
+        <v>17.29664628897305</v>
       </c>
       <c r="D16">
-        <v>5.614465250900872</v>
+        <v>5.769836584568942</v>
       </c>
       <c r="E16">
-        <v>9.820651706753754</v>
+        <v>9.838711500713231</v>
       </c>
       <c r="F16">
-        <v>19.49460871631518</v>
+        <v>18.4828723182583</v>
       </c>
       <c r="G16">
-        <v>2.07300421779636</v>
+        <v>3.663066960599359</v>
       </c>
       <c r="H16">
-        <v>6.504461986113406</v>
+        <v>6.496842709322502</v>
       </c>
       <c r="I16">
-        <v>2.867902873728582</v>
+        <v>2.914446957631816</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.15084460041333</v>
+        <v>12.52499102273135</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.68357722308308</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.934037603055309</v>
       </c>
       <c r="N16">
-        <v>5.283438636137714</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.25220851729165</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.77614826280444</v>
+        <v>5.338820290444544</v>
       </c>
       <c r="Q16">
-        <v>14.88990437536238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.08849066915053</v>
+      </c>
+      <c r="R16">
+        <v>12.90115897211052</v>
+      </c>
+      <c r="S16">
+        <v>14.06673205628265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.53895173551498</v>
+        <v>21.17894316489208</v>
       </c>
       <c r="C17">
-        <v>16.66352559981128</v>
+        <v>16.96245164417972</v>
       </c>
       <c r="D17">
-        <v>5.487832004291069</v>
+        <v>5.594678048986188</v>
       </c>
       <c r="E17">
-        <v>9.49865026027663</v>
+        <v>9.549336286797832</v>
       </c>
       <c r="F17">
-        <v>19.59126130395839</v>
+        <v>18.77230558570027</v>
       </c>
       <c r="G17">
-        <v>2.074497564648546</v>
+        <v>2.275914896093046</v>
       </c>
       <c r="H17">
-        <v>5.763476576898424</v>
+        <v>5.750627551407136</v>
       </c>
       <c r="I17">
-        <v>2.815503401349019</v>
+        <v>2.8770764486855</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.38693590802938</v>
+        <v>12.80368932274939</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.89944060223368</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.115847102985928</v>
       </c>
       <c r="N17">
-        <v>5.411237816770439</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.3757442039099</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.73163745602483</v>
+        <v>5.479797000414989</v>
       </c>
       <c r="Q17">
-        <v>15.058304854914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.24001210075428</v>
+      </c>
+      <c r="R17">
+        <v>12.81014458303112</v>
+      </c>
+      <c r="S17">
+        <v>14.37713788884004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.52114943258222</v>
+        <v>21.1716855193664</v>
       </c>
       <c r="C18">
-        <v>16.16577154670144</v>
+        <v>16.53695192195763</v>
       </c>
       <c r="D18">
-        <v>5.340662145919179</v>
+        <v>5.429960101168664</v>
       </c>
       <c r="E18">
-        <v>9.081972351211604</v>
+        <v>9.133616278798652</v>
       </c>
       <c r="F18">
-        <v>20.06709671267672</v>
+        <v>19.2939299938239</v>
       </c>
       <c r="G18">
-        <v>2.075080155393922</v>
+        <v>1.816089814246756</v>
       </c>
       <c r="H18">
-        <v>4.501653019593318</v>
+        <v>4.483251059417757</v>
       </c>
       <c r="I18">
-        <v>2.794542738373017</v>
+        <v>2.860645335203153</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.78501780522316</v>
+        <v>13.18077842868862</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.1774433758186</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.404380036082024</v>
       </c>
       <c r="N18">
-        <v>5.727614002328919</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.82480789611377</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.63211241318526</v>
+        <v>5.808279147860565</v>
       </c>
       <c r="Q18">
-        <v>15.48685152560616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.69507117296789</v>
+      </c>
+      <c r="R18">
+        <v>12.68797333948017</v>
+      </c>
+      <c r="S18">
+        <v>14.83492564738568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73228287114457</v>
+        <v>21.3546504833806</v>
       </c>
       <c r="C19">
-        <v>15.71396542914053</v>
+        <v>16.13593058894392</v>
       </c>
       <c r="D19">
-        <v>5.199195638207863</v>
+        <v>5.288927329002703</v>
       </c>
       <c r="E19">
-        <v>8.784883261056599</v>
+        <v>8.811027930709978</v>
       </c>
       <c r="F19">
-        <v>20.7626216269004</v>
+        <v>19.95442648430693</v>
       </c>
       <c r="G19">
-        <v>2.074861043166979</v>
+        <v>1.758215490178858</v>
       </c>
       <c r="H19">
-        <v>2.995737589545299</v>
+        <v>2.969848828686827</v>
       </c>
       <c r="I19">
-        <v>2.811855773412473</v>
+        <v>2.876591514816059</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.26876456907409</v>
+        <v>13.60724773386266</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.48265951189042</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.753947286914423</v>
       </c>
       <c r="N19">
-        <v>6.259408744226734</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.48830913873999</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.51445981280144</v>
+        <v>6.350276939600041</v>
       </c>
       <c r="Q19">
-        <v>16.05715248110905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.35219798548976</v>
+      </c>
+      <c r="R19">
+        <v>12.56061850586635</v>
+      </c>
+      <c r="S19">
+        <v>15.37315511734841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.60533944032282</v>
+        <v>22.10188944710306</v>
       </c>
       <c r="C20">
-        <v>15.36154690319986</v>
+        <v>15.78419790752995</v>
       </c>
       <c r="D20">
-        <v>5.068975705887722</v>
+        <v>5.202205203340296</v>
       </c>
       <c r="E20">
-        <v>8.830107042028107</v>
+        <v>8.780245511779706</v>
       </c>
       <c r="F20">
-        <v>22.09619678120639</v>
+        <v>21.04689649619986</v>
       </c>
       <c r="G20">
-        <v>2.072378580330362</v>
+        <v>2.555388175339378</v>
       </c>
       <c r="H20">
-        <v>1.765723228941436</v>
+        <v>1.793821233585529</v>
       </c>
       <c r="I20">
-        <v>2.918335886055623</v>
+        <v>2.961379119579335</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.02116901052664</v>
+        <v>14.18945162477856</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.84947269364563</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.315194533990173</v>
       </c>
       <c r="N20">
-        <v>7.285709127870768</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.71069268869377</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.32615845061974</v>
+        <v>7.382364398178394</v>
       </c>
       <c r="Q20">
-        <v>17.05032930773068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.53556546449431</v>
+      </c>
+      <c r="R20">
+        <v>12.38763070276616</v>
+      </c>
+      <c r="S20">
+        <v>16.17162704470871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.01037639224021</v>
+        <v>23.10262427826157</v>
       </c>
       <c r="C21">
-        <v>16.03659173534913</v>
+        <v>16.02158684113052</v>
       </c>
       <c r="D21">
-        <v>5.223725953236337</v>
+        <v>5.567120186498759</v>
       </c>
       <c r="E21">
-        <v>8.973202244044368</v>
+        <v>8.880048254741176</v>
       </c>
       <c r="F21">
-        <v>23.01016864595869</v>
+        <v>20.89652554533111</v>
       </c>
       <c r="G21">
-        <v>2.067274672000327</v>
+        <v>9.506689179236963</v>
       </c>
       <c r="H21">
-        <v>2.000888120971137</v>
+        <v>1.974174222791264</v>
       </c>
       <c r="I21">
-        <v>3.112024749948683</v>
+        <v>3.095735729743165</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.1352189027914</v>
+        <v>13.81690583891093</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.45219437458</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.24602860351664</v>
       </c>
       <c r="N21">
-        <v>7.571495275825336</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.44238793275535</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.19681411130867</v>
+        <v>7.637665891702475</v>
       </c>
       <c r="Q21">
-        <v>17.53832744891105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.10540546814004</v>
+      </c>
+      <c r="R21">
+        <v>12.40344558615878</v>
+      </c>
+      <c r="S21">
+        <v>15.80577368719379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.88041180077503</v>
+        <v>23.70427367820414</v>
       </c>
       <c r="C22">
-        <v>16.47004806699161</v>
+        <v>16.15559108597453</v>
       </c>
       <c r="D22">
-        <v>5.326408345357693</v>
+        <v>5.816203151505463</v>
       </c>
       <c r="E22">
-        <v>9.054271578296328</v>
+        <v>8.945801979214792</v>
       </c>
       <c r="F22">
-        <v>23.57564032319476</v>
+        <v>20.72468588332991</v>
       </c>
       <c r="G22">
-        <v>2.064032993917422</v>
+        <v>14.55943529414369</v>
       </c>
       <c r="H22">
-        <v>2.148105252701308</v>
+        <v>2.08705570184016</v>
       </c>
       <c r="I22">
-        <v>3.230297160354439</v>
+        <v>3.175518929666041</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.19926351711623</v>
+        <v>13.53866205401888</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.18328500383947</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.170636282732788</v>
       </c>
       <c r="N22">
-        <v>7.703495509654039</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.86107428030813</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.11771432292021</v>
+        <v>7.749204516328188</v>
       </c>
       <c r="Q22">
-        <v>17.83858629538378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.41312728730094</v>
+      </c>
+      <c r="R22">
+        <v>12.43535041573836</v>
+      </c>
+      <c r="S22">
+        <v>15.50712676318501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.4340348387646</v>
+        <v>23.43681247247728</v>
       </c>
       <c r="C23">
-        <v>16.22058942764059</v>
+        <v>16.11693558048547</v>
       </c>
       <c r="D23">
-        <v>5.268065916289856</v>
+        <v>5.659745302635767</v>
       </c>
       <c r="E23">
-        <v>9.013251435247589</v>
+        <v>8.909326355969545</v>
       </c>
       <c r="F23">
-        <v>23.29796572776463</v>
+        <v>20.95029584697798</v>
       </c>
       <c r="G23">
-        <v>2.06573762959443</v>
+        <v>11.06668319101295</v>
       </c>
       <c r="H23">
-        <v>2.070744694865516</v>
+        <v>2.029998572375032</v>
       </c>
       <c r="I23">
-        <v>3.163547063240525</v>
+        <v>3.129963688451626</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.18408424753098</v>
+        <v>13.75235927006101</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.36737609081846</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.268810965609466</v>
       </c>
       <c r="N23">
-        <v>7.631547804195097</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.64313226059086</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.15664497741111</v>
+        <v>7.690640361618785</v>
       </c>
       <c r="Q23">
-        <v>17.69755451327372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.27074722214227</v>
+      </c>
+      <c r="R23">
+        <v>12.4010203311475</v>
+      </c>
+      <c r="S23">
+        <v>15.77478162879232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63820163106235</v>
+        <v>22.13431317376963</v>
       </c>
       <c r="C24">
-        <v>15.27706850874718</v>
+        <v>15.70561451568971</v>
       </c>
       <c r="D24">
-        <v>5.047128578848703</v>
+        <v>5.178544733876247</v>
       </c>
       <c r="E24">
-        <v>8.85201862477167</v>
+        <v>8.797813360071322</v>
       </c>
       <c r="F24">
-        <v>22.19975056594286</v>
+        <v>21.15338013881777</v>
       </c>
       <c r="G24">
-        <v>2.072352533326035</v>
+        <v>2.514143529389768</v>
       </c>
       <c r="H24">
-        <v>1.770132057216938</v>
+        <v>1.798347759671596</v>
       </c>
       <c r="I24">
-        <v>2.912260255953978</v>
+        <v>2.953240303745135</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.10680778940708</v>
+        <v>14.26993882642502</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.90819088516262</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.379131276318137</v>
       </c>
       <c r="N24">
-        <v>7.356491752612215</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.78066289245957</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.31355382329509</v>
+        <v>7.454216297032422</v>
       </c>
       <c r="Q24">
-        <v>17.1384183127195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.60584850518372</v>
+      </c>
+      <c r="R24">
+        <v>12.37122428953747</v>
+      </c>
+      <c r="S24">
+        <v>16.261275197745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.52266289860362</v>
+        <v>20.15146695670862</v>
       </c>
       <c r="C25">
-        <v>14.19601766569732</v>
+        <v>14.59630311733011</v>
       </c>
       <c r="D25">
-        <v>4.796110941810389</v>
+        <v>4.855182566739106</v>
       </c>
       <c r="E25">
-        <v>8.672302303690229</v>
+        <v>8.689418231503701</v>
       </c>
       <c r="F25">
-        <v>21.00217237547918</v>
+        <v>20.12884388405906</v>
       </c>
       <c r="G25">
-        <v>2.079774926972499</v>
+        <v>1.475720252520545</v>
       </c>
       <c r="H25">
-        <v>1.692131253933901</v>
+        <v>1.615563765645494</v>
       </c>
       <c r="I25">
-        <v>2.632588182315735</v>
+        <v>2.725815782786912</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.04803984057788</v>
+        <v>14.30479670458734</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.14899986263538</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.084532413468088</v>
       </c>
       <c r="N25">
-        <v>7.049089711774226</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.78749633852538</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.49155602708742</v>
+        <v>7.159919057098244</v>
       </c>
       <c r="Q25">
-        <v>16.5510257996996</v>
+        <v>12.64281961019242</v>
+      </c>
+      <c r="R25">
+        <v>12.47468635323789</v>
+      </c>
+      <c r="S25">
+        <v>15.79771079676801</v>
       </c>
     </row>
   </sheetData>
